--- a/tests/fmudesign/data/config/design_input_default_no_seed.xlsx
+++ b/tests/fmudesign/data/config/design_input_default_no_seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\fmu\users\tral\fmu-utils\github\fmu-tools\tests\data\sensitivities\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/tests/fmudesign/data/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CDA813-79B9-4528-A2E5-EA5046D7852C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECC619-D21B-4F42-ABF2-701327E74FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2010" windowWidth="21600" windowHeight="12735" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2020" windowWidth="21600" windowHeight="12740" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -51,8 +51,18 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Number of repeated seeds per sensitivity/sensitivity case. 
-This is overrided if number of realisations is specified in the numreal column in designinput.</t>
+          <t xml:space="preserve">Number of repeated seeds per sensitivity/sensitivity case. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This is overrided if number of realisations is specified in the numreal column in designinput.</t>
         </r>
       </text>
     </comment>
@@ -66,10 +76,40 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Alternatives:
-- default gives seed numbers 1000, 1001, 1002, 1003,---
-- None (seed number is not added as parameter in spreadsheet) 
-- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
+          <t xml:space="preserve">Alternatives:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- default gives seed numbers 1000, 1001, 1002, 1003,---
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- None (seed number is not added as parameter in spreadsheet) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
         </r>
       </text>
     </comment>
@@ -83,11 +123,51 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Alternatives:
-- None
-- name of sheet in this workbook with background parameters
-- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
-Path is relative to where script is run from</t>
+          <t xml:space="preserve">Alternatives:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- None
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- name of sheet in this workbook with background parameters
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Path is relative to where script is run from</t>
         </r>
       </text>
     </comment>
@@ -177,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>designtype</t>
   </si>
@@ -327,6 +407,9 @@
   </si>
   <si>
     <t>rms_seeds</t>
+  </si>
+  <si>
+    <t>distribution_seed</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1102,12 +1185,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,13 +1214,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,16 +1243,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,13 +1272,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,8 +1305,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1242,7 +1322,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,7 +1335,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,20 +1359,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,8 +1388,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1803,9 +1881,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1843,7 +1921,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1949,7 +2027,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2091,7 +2169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2099,21 +2177,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="10"/>
-    <col min="3" max="3" width="77.85546875"/>
-    <col min="4" max="1025" width="8.7109375"/>
+    <col min="3" max="3" width="77.83203125"/>
+    <col min="4" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2137,11 +2215,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2161,28 +2247,28 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
-    <col min="2" max="2" width="8.42578125"/>
-    <col min="3" max="3" width="8.28515625"/>
-    <col min="4" max="4" width="15.140625"/>
+    <col min="1" max="1" width="10.83203125"/>
+    <col min="2" max="2" width="8.5"/>
+    <col min="3" max="3" width="8.33203125"/>
+    <col min="4" max="4" width="15.1640625"/>
     <col min="5" max="5" width="10" style="2"/>
-    <col min="6" max="6" width="11.85546875" style="2"/>
-    <col min="7" max="7" width="9.85546875" style="2"/>
+    <col min="6" max="6" width="11.83203125" style="2"/>
+    <col min="7" max="7" width="9.83203125" style="2"/>
     <col min="8" max="8" width="7" style="2"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="11.5703125" style="2"/>
-    <col min="11" max="14" width="11.85546875" style="2"/>
-    <col min="15" max="17" width="11.85546875"/>
-    <col min="18" max="19" width="8.7109375"/>
-    <col min="20" max="20" width="9.85546875"/>
-    <col min="21" max="21" width="8.7109375"/>
-    <col min="22" max="22" width="9.85546875"/>
-    <col min="23" max="1025" width="8.7109375"/>
+    <col min="9" max="9" width="11.83203125"/>
+    <col min="10" max="10" width="11.5" style="2"/>
+    <col min="11" max="14" width="11.83203125" style="2"/>
+    <col min="15" max="17" width="11.83203125"/>
+    <col min="18" max="19" width="8.6640625"/>
+    <col min="20" max="20" width="9.83203125"/>
+    <col min="21" max="21" width="8.6640625"/>
+    <col min="22" max="22" width="9.83203125"/>
+    <col min="23" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2319,7 @@
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2257,7 +2343,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2377,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
@@ -2307,135 +2393,135 @@
       <c r="E4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="44">
         <v>2</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="57">
         <v>2600</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="61">
         <v>2700</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="71">
+      <c r="E6" s="73"/>
+      <c r="F6" s="70">
         <v>2700</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="75">
+      <c r="G6" s="70"/>
+      <c r="H6" s="74">
         <v>2800</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="81"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="84">
+      <c r="E7" s="86"/>
+      <c r="F7" s="83">
         <v>2800</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="88">
+      <c r="G7" s="83"/>
+      <c r="H7" s="87">
         <v>2900</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="96">
         <v>10</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="103">
         <v>1</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106">
+      <c r="L8" s="104"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105">
         <v>4</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="107"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2449,107 +2535,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125"/>
-    <col min="2" max="2" width="13.42578125" style="2"/>
-    <col min="3" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="12.5"/>
+    <col min="2" max="2" width="13.5" style="2"/>
+    <col min="3" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="2">
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>2750</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>2850</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="2">
